--- a/summeries/revlib_summary.xlsx
+++ b/summeries/revlib_summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai.FAREAST\Documents\GitHub\quantum-logic\summeries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69864D-44BD-4D27-8883-F90A3FB30831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065B90E3-FCE7-4EE8-AB90-1B51D23124CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="3015" windowWidth="26280" windowHeight="11385" xr2:uid="{DE8DEC52-8F3D-4AFA-A5DB-077AB41B804E}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="26280" windowHeight="11385" activeTab="1" xr2:uid="{DE8DEC52-8F3D-4AFA-A5DB-077AB41B804E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>add6</t>
   </si>
@@ -152,7 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -468,11 +471,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B03C30-FC7E-408C-AAB2-8FC9F52521C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA8D8B0-BD23-44A4-AD75-4E25E5BAAA86}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +496,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -512,7 +528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -544,7 +560,7 @@
         <v>4550134</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -572,8 +588,62 @@
       <c r="J3">
         <v>12382280</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -601,8 +671,62 @@
       <c r="J4">
         <v>615716</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6118685</v>
+      </c>
+      <c r="O4" s="2">
+        <v>26484039</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1284818</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1109827</v>
+      </c>
+      <c r="R4" s="2">
+        <v>12941416</v>
+      </c>
+      <c r="S4" s="2">
+        <v>16496775</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1280188</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2097752</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1891918</v>
+      </c>
+      <c r="W4" s="2">
+        <v>368815</v>
+      </c>
+      <c r="X4" s="2">
+        <v>4842377</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>127707043775</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>365129189</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>556351</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1275005</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>140345054</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>2434898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -630,8 +754,62 @@
       <c r="J5">
         <v>735497</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5237090</v>
+      </c>
+      <c r="O5" s="2">
+        <v>32046075</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1132662</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1160595</v>
+      </c>
+      <c r="R5" s="2">
+        <v>20985848</v>
+      </c>
+      <c r="S5" s="2">
+        <v>16875773</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1035357</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1947546</v>
+      </c>
+      <c r="V5" s="2">
+        <v>7486057</v>
+      </c>
+      <c r="W5" s="2">
+        <v>372811</v>
+      </c>
+      <c r="X5" s="2">
+        <v>4198223</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>942341310370</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>207480798</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>544561</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1048283</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>102487944</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>1916082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -659,8 +837,58 @@
       <c r="J6">
         <v>2232629</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1073959</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1082445</v>
+      </c>
+      <c r="P6" s="2">
+        <v>120655</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>120647</v>
+      </c>
+      <c r="R6" s="2">
+        <v>40944</v>
+      </c>
+      <c r="S6" s="2">
+        <v>123109</v>
+      </c>
+      <c r="T6" s="2">
+        <v>410050</v>
+      </c>
+      <c r="U6" s="2">
+        <v>319021</v>
+      </c>
+      <c r="V6" s="2">
+        <v>122256</v>
+      </c>
+      <c r="W6" s="2">
+        <v>11878</v>
+      </c>
+      <c r="X6" s="2">
+        <v>122747</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>14798</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>122276</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>407707</v>
+      </c>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -688,8 +916,58 @@
       <c r="J7">
         <v>4937625</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1081982</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1077149</v>
+      </c>
+      <c r="P7" s="2">
+        <v>120514</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>118741</v>
+      </c>
+      <c r="R7" s="2">
+        <v>40614</v>
+      </c>
+      <c r="S7" s="2">
+        <v>122484</v>
+      </c>
+      <c r="T7" s="2">
+        <v>392798</v>
+      </c>
+      <c r="U7" s="2">
+        <v>306021</v>
+      </c>
+      <c r="V7" s="2">
+        <v>121426</v>
+      </c>
+      <c r="W7" s="2">
+        <v>8362</v>
+      </c>
+      <c r="X7" s="2">
+        <v>122127</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>13567</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>121453</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>399974</v>
+      </c>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -717,8 +995,62 @@
       <c r="J8">
         <v>1435218</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="2">
+        <v>6453239</v>
+      </c>
+      <c r="O8" s="2">
+        <v>25199839</v>
+      </c>
+      <c r="P8" s="2">
+        <v>855798</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1186916</v>
+      </c>
+      <c r="R8" s="2">
+        <v>18734213</v>
+      </c>
+      <c r="S8" s="2">
+        <v>17262343</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1509512</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1971180</v>
+      </c>
+      <c r="V8" s="2">
+        <v>5824535</v>
+      </c>
+      <c r="W8" s="2">
+        <v>277084</v>
+      </c>
+      <c r="X8" s="2">
+        <v>5176214</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>11742926810</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>107</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>540917</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1575472</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>170109760</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1970838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -746,8 +1078,62 @@
       <c r="J9">
         <v>1464840</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6118685</v>
+      </c>
+      <c r="O9" s="2">
+        <v>26484039</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1284818</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1109827</v>
+      </c>
+      <c r="R9" s="2">
+        <v>12941416</v>
+      </c>
+      <c r="S9" s="2">
+        <v>16496775</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1280188</v>
+      </c>
+      <c r="U9" s="2">
+        <v>2097752</v>
+      </c>
+      <c r="V9" s="2">
+        <v>7228456</v>
+      </c>
+      <c r="W9" s="2">
+        <v>368815</v>
+      </c>
+      <c r="X9" s="2">
+        <v>4842377</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>11742926810</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>556351</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1275005</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>140345054</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>2434898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -775,8 +1161,62 @@
       <c r="J10">
         <v>3030840</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="2">
+        <v>6315363</v>
+      </c>
+      <c r="O10" s="2">
+        <v>51147887</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1584283</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1670324</v>
+      </c>
+      <c r="R10" s="2">
+        <v>76007286</v>
+      </c>
+      <c r="S10" s="2">
+        <v>40408935</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1644484</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2197790</v>
+      </c>
+      <c r="V10" s="2">
+        <v>14994258</v>
+      </c>
+      <c r="W10" s="2">
+        <v>310797</v>
+      </c>
+      <c r="X10" s="2">
+        <v>8400521</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1457232116</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>163</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>551861</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1656632</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>180124992</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>3290189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -804,8 +1244,62 @@
       <c r="J11">
         <v>355621</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1087475</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1082495</v>
+      </c>
+      <c r="P11" s="2">
+        <v>120735</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>120199</v>
+      </c>
+      <c r="R11" s="2">
+        <v>41419</v>
+      </c>
+      <c r="S11" s="2">
+        <v>123758</v>
+      </c>
+      <c r="T11" s="2">
+        <v>414539</v>
+      </c>
+      <c r="U11" s="2">
+        <v>321596</v>
+      </c>
+      <c r="V11" s="2">
+        <v>122933</v>
+      </c>
+      <c r="W11" s="2">
+        <v>10571</v>
+      </c>
+      <c r="X11" s="2">
+        <v>122830</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>15596</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>5993</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>124431</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>404129</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>31044727</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>120471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -833,8 +1327,62 @@
       <c r="J12">
         <v>1756069</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4550134</v>
+      </c>
+      <c r="O12" s="2">
+        <v>12382280</v>
+      </c>
+      <c r="P12" s="2">
+        <v>615716</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>735497</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2232629</v>
+      </c>
+      <c r="S12" s="2">
+        <v>4937625</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1435218</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1464840</v>
+      </c>
+      <c r="V12" s="2">
+        <v>3030840</v>
+      </c>
+      <c r="W12" s="2">
+        <v>355621</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1756069</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>4111268519</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>445822</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1551794</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>177130703</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1237056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -863,7 +1411,7 @@
         <v>4111268519</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -889,7 +1437,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -915,7 +1463,7 @@
         <v>445822</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/summeries/revlib_summary.xlsx
+++ b/summeries/revlib_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai.FAREAST\Documents\GitHub\quantum-logic\summeries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065B90E3-FCE7-4EE8-AB90-1B51D23124CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AEF3BF-D32D-4342-93C0-E8C0C68D6136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="26280" windowHeight="11385" activeTab="1" xr2:uid="{DE8DEC52-8F3D-4AFA-A5DB-077AB41B804E}"/>
+    <workbookView xWindow="-75" yWindow="1080" windowWidth="26280" windowHeight="11385" activeTab="1" xr2:uid="{DE8DEC52-8F3D-4AFA-A5DB-077AB41B804E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>add6</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>DFS (=GBD)</t>
+  </si>
+  <si>
+    <t>gate length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS </t>
   </si>
 </sst>
 </file>
@@ -133,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,11 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA8D8B0-BD23-44A4-AD75-4E25E5BAAA86}">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +712,7 @@
         <v>2097752</v>
       </c>
       <c r="V4" s="2">
-        <v>1891918</v>
+        <v>7228456</v>
       </c>
       <c r="W4" s="2">
         <v>368815</v>
@@ -1462,6 +1475,60 @@
       <c r="J15">
         <v>445822</v>
       </c>
+      <c r="M15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1488,8 +1555,62 @@
       <c r="J16">
         <v>1551794</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="2">
+        <v>23897</v>
+      </c>
+      <c r="O16" s="2">
+        <v>34315</v>
+      </c>
+      <c r="P16" s="2">
+        <v>6550</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>6099</v>
+      </c>
+      <c r="R16" s="2">
+        <v>4420</v>
+      </c>
+      <c r="S16" s="2">
+        <v>9731</v>
+      </c>
+      <c r="T16" s="2">
+        <v>8584</v>
+      </c>
+      <c r="U16" s="2">
+        <v>9416</v>
+      </c>
+      <c r="V16" s="2">
+        <v>8752</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1531</v>
+      </c>
+      <c r="X16" s="2">
+        <v>8237</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>2531</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>198</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>5147</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>8729</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>99670</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>6494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1505,13 +1626,453 @@
       <c r="H17">
         <v>180124992</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="2">
+        <v>22562</v>
+      </c>
+      <c r="O17" s="2">
+        <v>33753</v>
+      </c>
+      <c r="P17" s="2">
+        <v>6530</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>5925</v>
+      </c>
+      <c r="R17" s="2">
+        <v>4412</v>
+      </c>
+      <c r="S17" s="2">
+        <v>9309</v>
+      </c>
+      <c r="T17" s="2">
+        <v>8405</v>
+      </c>
+      <c r="U17" s="2">
+        <v>9170</v>
+      </c>
+      <c r="V17" s="2">
+        <v>8461</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1259</v>
+      </c>
+      <c r="X17" s="2">
+        <v>8038</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>2362</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>135</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>5117</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>8665</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>105774</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>2434898</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="2">
+        <v>22031</v>
+      </c>
+      <c r="O18" s="2">
+        <v>35502</v>
+      </c>
+      <c r="P18" s="2">
+        <v>5724</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>6447</v>
+      </c>
+      <c r="R18" s="2">
+        <v>4836</v>
+      </c>
+      <c r="S18" s="2">
+        <v>9137</v>
+      </c>
+      <c r="T18" s="2">
+        <v>8518</v>
+      </c>
+      <c r="U18" s="2">
+        <v>8765</v>
+      </c>
+      <c r="V18" s="2">
+        <v>8272</v>
+      </c>
+      <c r="W18" s="2">
+        <v>875</v>
+      </c>
+      <c r="X18" s="2">
+        <v>8642</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>2710</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>4954</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>8763</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>211839</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="2">
+        <v>21313</v>
+      </c>
+      <c r="O19" s="2">
+        <v>31951</v>
+      </c>
+      <c r="P19" s="2">
+        <v>6071</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>5770</v>
+      </c>
+      <c r="R19" s="2">
+        <v>4502</v>
+      </c>
+      <c r="S19" s="4">
+        <v>8612</v>
+      </c>
+      <c r="T19" s="2">
+        <v>7980</v>
+      </c>
+      <c r="U19" s="2">
+        <v>8081</v>
+      </c>
+      <c r="V19" s="4">
+        <v>7518</v>
+      </c>
+      <c r="W19" s="4">
+        <v>438</v>
+      </c>
+      <c r="X19" s="2">
+        <v>8012</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1883</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>37</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>4740</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>8099</v>
+      </c>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="2">
+        <v>24327</v>
+      </c>
+      <c r="O20" s="2">
+        <v>31875</v>
+      </c>
+      <c r="P20" s="2">
+        <v>5458</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>6300</v>
+      </c>
+      <c r="R20" s="2">
+        <v>4493</v>
+      </c>
+      <c r="S20" s="2">
+        <v>9055</v>
+      </c>
+      <c r="T20" s="2">
+        <v>10176</v>
+      </c>
+      <c r="U20" s="2">
+        <v>8876</v>
+      </c>
+      <c r="V20" s="2">
+        <v>8231</v>
+      </c>
+      <c r="W20" s="2">
+        <v>1360</v>
+      </c>
+      <c r="X20" s="2">
+        <v>8562</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>2531</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>51</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>5281</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>10520</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>127512</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="2">
+        <v>23897</v>
+      </c>
+      <c r="O21" s="2">
+        <v>34315</v>
+      </c>
+      <c r="P21" s="2">
+        <v>6594</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>6099</v>
+      </c>
+      <c r="R21" s="2">
+        <v>4420</v>
+      </c>
+      <c r="S21" s="2">
+        <v>9731</v>
+      </c>
+      <c r="T21" s="3">
+        <v>8584</v>
+      </c>
+      <c r="U21" s="2">
+        <v>9416</v>
+      </c>
+      <c r="V21" s="2">
+        <v>8868</v>
+      </c>
+      <c r="W21" s="2">
+        <v>1531</v>
+      </c>
+      <c r="X21" s="2">
+        <v>8237</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>2531</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>5167</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>8729</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>99670</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>6506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="2">
+        <v>21547</v>
+      </c>
+      <c r="O22" s="2">
+        <v>29935</v>
+      </c>
+      <c r="P22" s="2">
+        <v>5367</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5640</v>
+      </c>
+      <c r="R22" s="2">
+        <v>4778</v>
+      </c>
+      <c r="S22" s="2">
+        <v>8671</v>
+      </c>
+      <c r="T22" s="2">
+        <v>8976</v>
+      </c>
+      <c r="U22" s="2">
+        <v>8262</v>
+      </c>
+      <c r="V22" s="2">
+        <v>8066</v>
+      </c>
+      <c r="W22" s="2">
+        <v>845</v>
+      </c>
+      <c r="X22" s="2">
+        <v>7629</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1956</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>59</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>4681</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>8712</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>111040</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="2">
+        <v>21959</v>
+      </c>
+      <c r="O23" s="2">
+        <v>35887</v>
+      </c>
+      <c r="P23" s="2">
+        <v>5927</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>6375</v>
+      </c>
+      <c r="R23" s="2">
+        <v>5311</v>
+      </c>
+      <c r="S23" s="2">
+        <v>9702</v>
+      </c>
+      <c r="T23" s="2">
+        <v>8543</v>
+      </c>
+      <c r="U23" s="2">
+        <v>9308</v>
+      </c>
+      <c r="V23" s="2">
+        <v>8801</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1019</v>
+      </c>
+      <c r="X23" s="2">
+        <v>8826</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>3820</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>5027</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>8841</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>183379</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>7095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="2">
+        <v>19034</v>
+      </c>
+      <c r="O24" s="2">
+        <v>28608</v>
+      </c>
+      <c r="P24" s="2">
+        <v>5436</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>5417</v>
+      </c>
+      <c r="R24" s="2">
+        <v>4053</v>
+      </c>
+      <c r="S24" s="2">
+        <v>9113</v>
+      </c>
+      <c r="T24" s="2">
+        <v>7810</v>
+      </c>
+      <c r="U24" s="2">
+        <v>7672</v>
+      </c>
+      <c r="V24" s="2">
+        <v>8016</v>
+      </c>
+      <c r="W24" s="2">
+        <v>1769</v>
+      </c>
+      <c r="X24" s="2">
+        <v>7325</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>2967</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>4134</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>8074</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>87707</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>3832</v>
       </c>
     </row>
   </sheetData>
